--- a/assets/template-excel/template-sipesat.xlsx
+++ b/assets/template-excel/template-sipesat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\reporting\assets\template-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BE3289-F40C-460A-818D-FDE2A5B918FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12468EC-7590-4E9B-B40B-93F13C68C3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22635" yWindow="2745" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B0CDBB47-A0BF-4054-9A17-AB0889F51C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{B0CDBB47-A0BF-4054-9A17-AB0889F51C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sipesat" sheetId="1" r:id="rId1"/>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C5481A-6303-4BE2-91D8-8BB6309A7824}">
   <dimension ref="A2:H1480"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
     <col min="4" max="4" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
@@ -15322,8 +15322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA39865-A24C-4EA6-AC5A-08DB0E382ABB}">
   <dimension ref="A2:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D45" sqref="D44:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
